--- a/data/trans_bre/IP2001-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP2001-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 8,49</t>
+          <t>-8,32; 8,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,9; 4,48</t>
+          <t>-14,56; 3,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 14,88</t>
+          <t>-6,56; 14,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,87; -1,54</t>
+          <t>-13,42; -1,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-49,02; 80,09</t>
+          <t>-43,0; 87,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-64,16; 37,72</t>
+          <t>-63,23; 31,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-35,92; 149,61</t>
+          <t>-35,64; 155,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 4,93</t>
+          <t>-1,03; 5,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 4,6</t>
+          <t>-2,25; 4,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 4,59</t>
+          <t>-2,1; 4,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 1,76</t>
+          <t>-3,25; 1,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,02; 85,22</t>
+          <t>-12,48; 87,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,49; 57,61</t>
+          <t>-20,36; 56,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-19,64; 57,68</t>
+          <t>-19,15; 55,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-48,78; 43,75</t>
+          <t>-47,02; 42,79</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 0,44</t>
+          <t>-7,69; 0,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 3,11</t>
+          <t>-5,02; 2,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 3,33</t>
+          <t>-6,01; 3,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 1,86</t>
+          <t>-7,75; 1,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-80,5; 20,43</t>
+          <t>-79,18; 30,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-69,66; 124,94</t>
+          <t>-72,74; 124,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-57,71; 70,5</t>
+          <t>-62,9; 60,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-72,82; 42,95</t>
+          <t>-72,83; 36,62</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 2,97</t>
+          <t>-1,97; 3,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 2,6</t>
+          <t>-2,67; 2,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 3,62</t>
+          <t>-1,99; 3,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 0,5</t>
+          <t>-3,74; 0,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-21,38; 43,28</t>
+          <t>-21,34; 43,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-26,54; 31,46</t>
+          <t>-24,64; 32,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 43,29</t>
+          <t>-17,81; 43,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-49,09; 10,57</t>
+          <t>-49,97; 15,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP2001-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP2001-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-5,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-4,94</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,54%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,24%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,57%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,51; 8,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,53; 3,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,74; 15,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,57; -1,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,86; 80,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,73; 30,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,28; 147,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,11</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,87</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-4,54%</t>
+          <t>28,19%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-30,24%</t>
+          <t>11,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>25,57%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-15,39%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 8,82</t>
+          <t>-1,28; 5,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 3,34</t>
+          <t>-2,12; 4,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 14,83</t>
+          <t>-2,36; 4,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,42; -1,55</t>
+          <t>-3,49; 1,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-43,0; 87,27</t>
+          <t>-15,47; 96,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-63,23; 31,7</t>
+          <t>-19,05; 56,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-35,64; 155,66</t>
+          <t>-20,6; 51,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,59; 48,18</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>28,19%</t>
+          <t>-46,55%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>-14,39%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>-16,72%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-11,83%</t>
+          <t>-35,45%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 5,02</t>
+          <t>-7,42; 1,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 4,61</t>
+          <t>-5,05; 3,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 4,67</t>
+          <t>-5,97; 3,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 1,81</t>
+          <t>-7,42; 1,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 87,96</t>
+          <t>-78,3; 28,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,36; 56,16</t>
+          <t>-72,25; 126,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-19,15; 55,47</t>
+          <t>-61,16; 68,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-47,02; 42,79</t>
+          <t>-69,92; 47,47</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-46,55%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-14,39%</t>
+          <t>-0,97%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-16,72%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-35,78%</t>
+          <t>-27,37%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 0,74</t>
+          <t>-1,66; 3,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 2,86</t>
+          <t>-2,57; 2,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 3,11</t>
+          <t>-1,81; 3,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 1,71</t>
+          <t>-3,88; 0,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-79,18; 30,52</t>
+          <t>-18,45; 47,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-72,74; 124,34</t>
+          <t>-24,12; 29,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-62,9; 60,64</t>
+          <t>-16,83; 40,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-72,83; 36,62</t>
+          <t>-52,62; 10,54</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,46</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-1,49</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>5,74%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-0,88%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>8,1%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-24,86%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,97; 3,0</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,67; 2,57</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,99; 3,66</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-3,74; 0,61</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-21,34; 43,16</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-24,64; 32,02</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-17,81; 43,39</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-49,97; 15,11</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
